--- a/vyuha/others/files/input_files/operating_hours.xlsx
+++ b/vyuha/others/files/input_files/operating_hours.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ascent\App\Maarg\vyuha\others\files\input_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFDD67D-7184-44C0-942C-1A7613D3CDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9D44CC-2B6E-486A-B531-F6293002A22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E59909F5-ADE5-458E-B950-31E27D1F48A8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
   <si>
     <t>Mayapuri</t>
   </si>
@@ -271,6 +271,12 @@
   </si>
   <si>
     <t>ops_end_hour</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>shift_factor</t>
   </si>
 </sst>
 </file>
@@ -627,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588D71AF-AC1D-4FA5-942A-7C21094041AD}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,6 +669,12 @@
       </c>
       <c r="G1" t="s">
         <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
